--- a/BackTest/2019-10-26 BackTest BTG.xlsx
+++ b/BackTest/2019-10-26 BackTest BTG.xlsx
@@ -451,17 +451,13 @@
         <v>8962</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8950</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>8960</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>8950</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>8958</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K4" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,22 +556,14 @@
         <v>8958</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -619,22 +591,14 @@
         <v>8961</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K6" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -662,22 +626,14 @@
         <v>8963</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K7" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -705,22 +661,14 @@
         <v>8963</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>8960</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -748,22 +696,14 @@
         <v>8930</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>8795</v>
-      </c>
-      <c r="K9" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -791,22 +731,14 @@
         <v>8895</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>8795</v>
-      </c>
-      <c r="K10" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -834,22 +766,14 @@
         <v>8881</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>8890</v>
-      </c>
-      <c r="K11" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -877,22 +801,14 @@
         <v>8883</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>8810</v>
-      </c>
-      <c r="K12" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -920,22 +836,14 @@
         <v>8885</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>8965</v>
-      </c>
-      <c r="K13" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -963,22 +871,14 @@
         <v>8958</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>8970</v>
-      </c>
-      <c r="K14" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -1006,22 +906,14 @@
         <v>9031</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>9160</v>
-      </c>
-      <c r="K15" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1055,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1093,17 +979,11 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1137,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1175,19 +1049,13 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>8950</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>1.017346368715084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1286,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1321,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1356,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -2158,20 +2026,14 @@
         <v>8904</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>8980</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2199,20 +2061,14 @@
         <v>8903</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>8935</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2240,20 +2096,14 @@
         <v>8905</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>8935</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2281,20 +2131,14 @@
         <v>8950</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2322,20 +2166,14 @@
         <v>8959</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>9015</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2409,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2448,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2487,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2526,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2565,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2604,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2643,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2721,11 +2523,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2753,20 +2551,14 @@
         <v>8901</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>8900</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2794,20 +2586,14 @@
         <v>8918</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>8985</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2835,20 +2621,14 @@
         <v>8936</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>8990</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2876,20 +2656,14 @@
         <v>8971</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>9065</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2924,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2963,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3041,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3080,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3119,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3197,11 +2943,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3236,11 +2978,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3275,11 +3013,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3314,11 +3048,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3353,11 +3083,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3118,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3153,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3470,11 +3188,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3509,11 +3223,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3548,11 +3258,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3293,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3626,11 +3328,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3363,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3704,11 +3398,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3743,11 +3433,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3782,11 +3468,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3821,11 +3503,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3860,11 +3538,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3573,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3938,11 +3608,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3977,11 +3643,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4016,11 +3678,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4055,11 +3713,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4094,11 +3748,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4133,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4172,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4211,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4250,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4289,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4367,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4406,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4445,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4484,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4523,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4601,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4640,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4679,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4718,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4757,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4796,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4874,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4913,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4952,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +4553,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5069,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5108,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5147,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5186,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5225,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5264,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5342,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5381,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5459,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5498,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5537,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5576,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5615,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5654,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5693,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5732,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5771,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5810,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5849,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5888,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5927,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5966,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6005,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6044,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6122,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6161,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6200,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6239,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6317,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6356,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6395,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6434,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6473,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6551,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6590,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6629,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6668,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6707,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6824,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6863,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6902,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6937,16 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -11559,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="I301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
@@ -11594,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
@@ -11629,7 +10989,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
@@ -14496,184 +13856,174 @@
         <v>8818</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
       </c>
-      <c r="J385" t="n">
-        <v>8800</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr">
+      <c r="L385" t="inlineStr"/>
+      <c r="M385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>8795</v>
+      </c>
+      <c r="C386" t="n">
+        <v>8790</v>
+      </c>
+      <c r="D386" t="n">
+        <v>8795</v>
+      </c>
+      <c r="E386" t="n">
+        <v>8790</v>
+      </c>
+      <c r="F386" t="n">
+        <v>28.7123</v>
+      </c>
+      <c r="G386" t="n">
+        <v>8802</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
+      <c r="M386" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="C387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="D387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="E387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="F387" t="n">
+        <v>28.1918</v>
+      </c>
+      <c r="G387" t="n">
+        <v>8797</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="K387" t="n">
+        <v>8790</v>
+      </c>
+      <c r="L387" t="inlineStr"/>
+      <c r="M387" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>8785</v>
+      </c>
+      <c r="C388" t="n">
+        <v>8785</v>
+      </c>
+      <c r="D388" t="n">
+        <v>8785</v>
+      </c>
+      <c r="E388" t="n">
+        <v>8785</v>
+      </c>
+      <c r="F388" t="n">
+        <v>12.2695</v>
+      </c>
+      <c r="G388" t="n">
+        <v>8792</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>8790</v>
+      </c>
+      <c r="K388" t="n">
+        <v>8790</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M388" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>8785</v>
+      </c>
+      <c r="C389" t="n">
+        <v>8760</v>
+      </c>
+      <c r="D389" t="n">
+        <v>8785</v>
+      </c>
+      <c r="E389" t="n">
+        <v>8760</v>
+      </c>
+      <c r="F389" t="n">
+        <v>56.5907</v>
+      </c>
+      <c r="G389" t="n">
+        <v>8784</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>8785</v>
+      </c>
+      <c r="K389" t="n">
+        <v>8790</v>
+      </c>
+      <c r="L389" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M385" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>8795</v>
-      </c>
-      <c r="C386" t="n">
-        <v>8790</v>
-      </c>
-      <c r="D386" t="n">
-        <v>8795</v>
-      </c>
-      <c r="E386" t="n">
-        <v>8790</v>
-      </c>
-      <c r="F386" t="n">
-        <v>28.7123</v>
-      </c>
-      <c r="G386" t="n">
-        <v>8802</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="n">
-        <v>8795</v>
-      </c>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M386" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>8790</v>
-      </c>
-      <c r="C387" t="n">
-        <v>8790</v>
-      </c>
-      <c r="D387" t="n">
-        <v>8790</v>
-      </c>
-      <c r="E387" t="n">
-        <v>8790</v>
-      </c>
-      <c r="F387" t="n">
-        <v>28.1918</v>
-      </c>
-      <c r="G387" t="n">
-        <v>8797</v>
-      </c>
-      <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>0</v>
-      </c>
-      <c r="J387" t="n">
-        <v>8790</v>
-      </c>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M387" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>8785</v>
-      </c>
-      <c r="C388" t="n">
-        <v>8785</v>
-      </c>
-      <c r="D388" t="n">
-        <v>8785</v>
-      </c>
-      <c r="E388" t="n">
-        <v>8785</v>
-      </c>
-      <c r="F388" t="n">
-        <v>12.2695</v>
-      </c>
-      <c r="G388" t="n">
-        <v>8792</v>
-      </c>
-      <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>0</v>
-      </c>
-      <c r="J388" t="n">
-        <v>8785</v>
-      </c>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M388" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>8785</v>
-      </c>
-      <c r="C389" t="n">
-        <v>8760</v>
-      </c>
-      <c r="D389" t="n">
-        <v>8785</v>
-      </c>
-      <c r="E389" t="n">
-        <v>8760</v>
-      </c>
-      <c r="F389" t="n">
-        <v>56.5907</v>
-      </c>
-      <c r="G389" t="n">
-        <v>8784</v>
-      </c>
-      <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>0</v>
-      </c>
-      <c r="J389" t="n">
-        <v>8785</v>
-      </c>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -14709,7 +14059,9 @@
       <c r="J390" t="n">
         <v>8760</v>
       </c>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>8790</v>
+      </c>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14748,9 +14100,11 @@
         <v>0</v>
       </c>
       <c r="J391" t="n">
-        <v>8755</v>
-      </c>
-      <c r="K391" t="inlineStr"/>
+        <v>8745</v>
+      </c>
+      <c r="K391" t="n">
+        <v>8790</v>
+      </c>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14791,7 +14145,9 @@
       <c r="J392" t="n">
         <v>8755</v>
       </c>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>8790</v>
+      </c>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14830,9 +14186,11 @@
         <v>0</v>
       </c>
       <c r="J393" t="n">
+        <v>8850</v>
+      </c>
+      <c r="K393" t="n">
         <v>8790</v>
       </c>
-      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14865,15 +14223,15 @@
         <v>8772</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
       </c>
-      <c r="J394" t="n">
-        <v>8765</v>
-      </c>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>8790</v>
+      </c>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14906,15 +14264,15 @@
         <v>8776</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
       </c>
-      <c r="J395" t="n">
-        <v>8760</v>
-      </c>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>8790</v>
+      </c>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14947,15 +14305,15 @@
         <v>8778</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
       </c>
-      <c r="J396" t="n">
-        <v>8765</v>
-      </c>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>8790</v>
+      </c>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,15 +14346,15 @@
         <v>8768</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
       </c>
-      <c r="J397" t="n">
-        <v>8780</v>
-      </c>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>8790</v>
+      </c>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-26 BackTest BTG.xlsx
+++ b/BackTest/2019-10-26 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2254.1497</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2254.1497</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>8675</v>
@@ -523,7 +523,7 @@
         <v>2254.1497</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>8675</v>
@@ -562,7 +562,7 @@
         <v>2204.1497</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>8675</v>
@@ -601,7 +601,7 @@
         <v>2311.0539</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>8670</v>
@@ -640,9 +640,11 @@
         <v>2258.0539</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8685</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,9 +679,11 @@
         <v>2386.0539</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8675</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +718,11 @@
         <v>2400.3885</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8680</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -751,9 +757,11 @@
         <v>3060.5642</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8690</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -936,9 +944,11 @@
         <v>3058.4715</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8830</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
@@ -1010,9 +1020,11 @@
         <v>3061.4523</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8795</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
@@ -1084,9 +1096,11 @@
         <v>3023.5417</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8780</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
@@ -1158,9 +1172,11 @@
         <v>2976.595</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8825</v>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
@@ -1195,9 +1211,11 @@
         <v>2976.595</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8820</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
@@ -1232,9 +1250,11 @@
         <v>2873.6944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8820</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
@@ -1269,9 +1289,11 @@
         <v>3993.427476</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8805</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
@@ -1602,9 +1624,11 @@
         <v>4989.016676</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8875</v>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
@@ -3748,7 +3772,7 @@
         <v>4321.669583249999</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3822,7 +3846,7 @@
         <v>4336.810283249999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3896,7 +3920,7 @@
         <v>4372.323883249999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4266,7 +4290,7 @@
         <v>4748.87938325</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4340,7 +4364,7 @@
         <v>4738.87938325</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4414,7 +4438,7 @@
         <v>4759.36372193</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4562,7 +4586,7 @@
         <v>4533.00482193</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4636,7 +4660,7 @@
         <v>4236.90582193</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4673,7 +4697,7 @@
         <v>4325.76582193</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4710,7 +4734,7 @@
         <v>4308.50762193</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4784,7 +4808,7 @@
         <v>4132.68222193</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4858,7 +4882,7 @@
         <v>4132.68222193</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4932,7 +4956,7 @@
         <v>4261.28382193</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4969,7 +4993,7 @@
         <v>4287.411721930001</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -5006,7 +5030,7 @@
         <v>4287.411721930001</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5117,7 +5141,7 @@
         <v>4284.58272193</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5154,7 +5178,7 @@
         <v>4306.16752193</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5228,7 +5252,7 @@
         <v>4302.16752193</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5265,7 +5289,7 @@
         <v>4054.31882193</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5302,7 +5326,7 @@
         <v>4054.31882193</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5376,7 +5400,7 @@
         <v>4059.31882193</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5450,7 +5474,7 @@
         <v>4160.413821929999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5487,7 +5511,7 @@
         <v>4229.57902193</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5524,7 +5548,7 @@
         <v>4227.59432193</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5561,7 +5585,7 @@
         <v>4229.78532193</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5598,7 +5622,7 @@
         <v>4145.98232193</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5672,7 +5696,7 @@
         <v>4270.451521929999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5746,7 +5770,7 @@
         <v>4257.853821929999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5783,7 +5807,7 @@
         <v>4276.683821929999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5820,7 +5844,7 @@
         <v>4280.683821929999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6042,7 +6066,7 @@
         <v>4300.513821929999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6116,7 +6140,7 @@
         <v>4654.013821929999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6190,7 +6214,7 @@
         <v>4608.013821929999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6264,7 +6288,7 @@
         <v>4601.013821929999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6338,7 +6362,7 @@
         <v>4692.302821929999</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6412,7 +6436,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6486,7 +6510,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6523,7 +6547,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6560,7 +6584,7 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -7485,7 +7509,7 @@
         <v>4678.819821929999</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7855,16 +7879,18 @@
         <v>7428.615426720001</v>
       </c>
       <c r="H202" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L202" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
       <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
@@ -7890,11 +7916,15 @@
         <v>7150.119026720001</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7923,11 +7953,15 @@
         <v>7343.286426720001</v>
       </c>
       <c r="H204" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7990,15 @@
         <v>8010.387326720002</v>
       </c>
       <c r="H205" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7993,7 +8031,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8026,7 +8068,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8055,11 +8101,15 @@
         <v>8939.575626720001</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8092,7 +8142,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8121,11 +8175,15 @@
         <v>9322.087626720002</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8154,11 +8212,15 @@
         <v>9088.046326720001</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8187,11 +8249,15 @@
         <v>9179.863226720001</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8220,11 +8286,15 @@
         <v>9179.863226720001</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8253,11 +8323,15 @@
         <v>9106.538526720002</v>
       </c>
       <c r="H214" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8286,11 +8360,15 @@
         <v>8893.341626720001</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8323,7 +8401,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8356,7 +8438,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8389,7 +8475,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8422,7 +8512,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8455,7 +8549,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8488,7 +8586,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8521,7 +8623,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8554,7 +8660,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8587,7 +8697,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8620,7 +8734,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8653,7 +8771,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8686,7 +8808,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8845,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8752,7 +8882,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8785,7 +8919,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8818,7 +8956,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8851,7 +8993,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8884,7 +9030,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8917,7 +9067,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8950,7 +9104,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8983,7 +9141,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9012,14 +9174,16 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
@@ -9045,7 +9209,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9078,7 +9242,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9111,7 +9275,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9144,7 +9308,7 @@
         <v>8974.096714519999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9177,7 +9341,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9210,7 +9374,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9243,7 +9407,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9276,7 +9440,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9309,7 +9473,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9342,7 +9506,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9375,7 +9539,7 @@
         <v>9167.034514520001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9408,7 +9572,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9441,7 +9605,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9474,7 +9638,7 @@
         <v>9779.595123179999</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9507,7 +9671,7 @@
         <v>10534.07962999</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9540,7 +9704,7 @@
         <v>10285.10452999</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9573,7 +9737,7 @@
         <v>10116.62192999</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9606,7 +9770,7 @@
         <v>9909.754029990001</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9639,7 +9803,7 @@
         <v>10558.97332999</v>
       </c>
       <c r="H256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9672,7 +9836,7 @@
         <v>10522.02602999</v>
       </c>
       <c r="H257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9705,7 +9869,7 @@
         <v>10524.02602999</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9738,7 +9902,7 @@
         <v>10390.72802999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9837,7 +10001,7 @@
         <v>10390.92802999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9903,7 +10067,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10035,7 +10199,7 @@
         <v>10415.55812999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10068,7 +10232,7 @@
         <v>10365.93312999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10101,7 +10265,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10134,7 +10298,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10167,7 +10331,7 @@
         <v>9424.487029990001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10200,7 +10364,7 @@
         <v>9145.498229990002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10233,7 +10397,7 @@
         <v>8363.509329990002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10266,7 +10430,7 @@
         <v>8364.599229990003</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10299,7 +10463,7 @@
         <v>8370.599229990003</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10332,7 +10496,7 @@
         <v>8369.611729990003</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10365,7 +10529,7 @@
         <v>8379.665029990003</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10398,7 +10562,7 @@
         <v>8434.807329990002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10431,7 +10595,7 @@
         <v>8262.245829990003</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10464,7 +10628,7 @@
         <v>8200.245829990003</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10497,7 +10661,7 @@
         <v>8413.336529990003</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10530,7 +10694,7 @@
         <v>8411.336529990003</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10563,7 +10727,7 @@
         <v>8445.336529990003</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10596,7 +10760,7 @@
         <v>8372.773729990004</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10629,7 +10793,7 @@
         <v>8471.922329990004</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10662,7 +10826,7 @@
         <v>8535.216029990004</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10695,7 +10859,7 @@
         <v>8535.216029990004</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10761,7 +10925,7 @@
         <v>8523.154929990005</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10794,7 +10958,7 @@
         <v>8415.024029990005</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11157,7 +11321,7 @@
         <v>7969.186629990004</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11223,7 +11387,7 @@
         <v>8061.879029990004</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11289,7 +11453,7 @@
         <v>7934.776729990004</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11355,7 +11519,7 @@
         <v>7845.394529990004</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11388,7 +11552,7 @@
         <v>7845.394529990004</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11421,7 +11585,7 @@
         <v>7845.394529990004</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11454,7 +11618,7 @@
         <v>7845.394529990004</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11487,7 +11651,7 @@
         <v>7845.394529990004</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11520,7 +11684,7 @@
         <v>7857.826629990004</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11553,7 +11717,7 @@
         <v>7887.826629990004</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11586,7 +11750,7 @@
         <v>7861.989729990004</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11619,7 +11783,7 @@
         <v>7861.989729990004</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11652,7 +11816,7 @@
         <v>7861.989729990004</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11685,7 +11849,7 @@
         <v>7657.990229990004</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11718,7 +11882,7 @@
         <v>7033.230429990004</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11751,7 +11915,7 @@
         <v>7104.226729990004</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11784,7 +11948,7 @@
         <v>7120.144829990004</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11817,7 +11981,7 @@
         <v>7116.144829990004</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11883,7 +12047,7 @@
         <v>7220.328529990004</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11982,7 +12146,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12015,7 +12179,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12048,7 +12212,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12081,7 +12245,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12114,7 +12278,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12147,7 +12311,7 @@
         <v>7598.580029990003</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12213,7 +12377,7 @@
         <v>7552.761529990003</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12246,7 +12410,7 @@
         <v>7486.674229990002</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12279,7 +12443,7 @@
         <v>7486.674229990002</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12345,7 +12509,7 @@
         <v>7489.011629990003</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12378,7 +12542,7 @@
         <v>7532.481229990003</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12411,7 +12575,7 @@
         <v>7532.008529990003</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12510,7 +12674,7 @@
         <v>7489.253129990003</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12543,7 +12707,7 @@
         <v>7504.993229990003</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12675,7 +12839,7 @@
         <v>7504.352229990003</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12741,7 +12905,7 @@
         <v>7461.736646060003</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13038,7 +13202,7 @@
         <v>7794.437030570003</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13071,7 +13235,7 @@
         <v>7391.763730570003</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13104,7 +13268,7 @@
         <v>7449.304430570002</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13137,7 +13301,7 @@
         <v>7351.476430570002</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13170,7 +13334,7 @@
         <v>7351.976430570002</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13203,7 +13367,7 @@
         <v>7362.891830570002</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13236,7 +13400,7 @@
         <v>7304.350030570002</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13269,7 +13433,7 @@
         <v>7365.608630570002</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13302,7 +13466,7 @@
         <v>7365.608630570002</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13335,7 +13499,7 @@
         <v>7365.308630570002</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13368,7 +13532,7 @@
         <v>7365.308630570002</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13401,7 +13565,7 @@
         <v>7365.308630570002</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13434,7 +13598,7 @@
         <v>7365.308630570002</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13467,7 +13631,7 @@
         <v>7332.308630570002</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13500,7 +13664,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13533,7 +13697,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H374" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13566,7 +13730,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13599,7 +13763,7 @@
         <v>6757.070930570002</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13632,7 +13796,7 @@
         <v>6757.070930570002</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13665,7 +13829,7 @@
         <v>6839.828330570002</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13698,7 +13862,7 @@
         <v>6723.321930570002</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13731,7 +13895,7 @@
         <v>6723.321930570002</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13764,7 +13928,7 @@
         <v>6723.321930570002</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14160,7 +14324,7 @@
         <v>7025.193319650002</v>
       </c>
       <c r="H393" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14457,7 +14621,7 @@
         <v>7243.759397530002</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14490,7 +14654,7 @@
         <v>7243.759397530002</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14523,7 +14687,7 @@
         <v>7421.759397530002</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14556,7 +14720,7 @@
         <v>7416.759397530002</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14589,7 +14753,7 @@
         <v>7350.759397530002</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14622,7 +14786,7 @@
         <v>7350.759397530002</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14655,7 +14819,7 @@
         <v>7501.314397530003</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14688,7 +14852,7 @@
         <v>7124.224297530002</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14754,7 +14918,7 @@
         <v>7093.446097530003</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14787,7 +14951,7 @@
         <v>7204.316597530003</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14820,7 +14984,7 @@
         <v>7108.737397530002</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14853,7 +15017,7 @@
         <v>7090.540597530003</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14886,7 +15050,7 @@
         <v>6820.215297530002</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14919,7 +15083,7 @@
         <v>6768.408797530003</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15645,7 +15809,7 @@
         <v>6350.815597530002</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15678,7 +15842,7 @@
         <v>6350.815597530002</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15711,7 +15875,7 @@
         <v>6318.655597530003</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15744,7 +15908,7 @@
         <v>6313.663097530002</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15777,7 +15941,7 @@
         <v>6283.663097530002</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15810,7 +15974,7 @@
         <v>6027.890897530002</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15843,7 +16007,7 @@
         <v>5995.607497530002</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15876,7 +16040,7 @@
         <v>5966.895197530001</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15909,7 +16073,7 @@
         <v>5966.895197530001</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15942,7 +16106,7 @@
         <v>5954.625697530001</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15975,7 +16139,7 @@
         <v>5898.034997530001</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16008,7 +16172,7 @@
         <v>5868.406097530002</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16041,7 +16205,7 @@
         <v>5876.406097530002</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16074,7 +16238,7 @@
         <v>6636.302197530002</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16107,7 +16271,7 @@
         <v>6281.034497530001</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16140,7 +16304,7 @@
         <v>6291.034497530001</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16173,7 +16337,7 @@
         <v>6385.261597530001</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16206,7 +16370,7 @@
         <v>6385.261597530001</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16239,7 +16403,7 @@
         <v>6450.100297530002</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16272,7 +16436,7 @@
         <v>6450.100297530002</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16305,7 +16469,7 @@
         <v>6444.955897530001</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16338,7 +16502,7 @@
         <v>6444.955897530001</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -16371,7 +16535,7 @@
         <v>6444.955897530001</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16437,7 +16601,7 @@
         <v>6449.955897530001</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16580,6 +16744,6 @@
       <c r="M466" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BTG.xlsx
+++ b/BackTest/2019-10-26 BackTest BTG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,95 +484,89 @@
         <v>2254.1497</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>8675</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="C4" t="n">
+        <v>8675</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8675</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2254.1497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8675</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8675</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8675</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8670</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8675</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8670</v>
+      </c>
+      <c r="F5" t="n">
+        <v>50</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2204.1497</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8675</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8675</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="C4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="E4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2254.1497</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>8675</v>
-      </c>
-      <c r="C5" t="n">
-        <v>8670</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8675</v>
-      </c>
-      <c r="E5" t="n">
-        <v>8670</v>
-      </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2204.1497</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8675</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -606,7 +600,9 @@
       <c r="I6" t="n">
         <v>8670</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>8675</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -645,7 +641,9 @@
       <c r="I7" t="n">
         <v>8685</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>8675</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -684,7 +682,9 @@
       <c r="I8" t="n">
         <v>8675</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>8675</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -723,7 +723,9 @@
       <c r="I9" t="n">
         <v>8680</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>8675</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -762,7 +764,9 @@
       <c r="I10" t="n">
         <v>8690</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>8675</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -799,7 +803,9 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>8675</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -836,7 +842,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>8675</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -873,7 +881,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>8675</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,7 +920,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>8675</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -944,12 +956,12 @@
         <v>3058.4715</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8830</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>8675</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -986,7 +998,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>8675</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1020,12 +1034,12 @@
         <v>3061.4523</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8795</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>8675</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1062,7 +1076,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>8675</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1096,19 +1112,19 @@
         <v>3023.5417</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8780</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>8675</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>1.007103746397695</v>
       </c>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1135,15 +1151,11 @@
         <v>3029.5417</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,17 +1184,11 @@
         <v>2976.595</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>8825</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1211,17 +1217,11 @@
         <v>2976.595</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8820</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,17 +1250,11 @@
         <v>2873.6944</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8820</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1289,17 +1283,11 @@
         <v>3993.427476</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8805</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1328,15 +1316,11 @@
         <v>3992.427476</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1365,15 +1349,11 @@
         <v>3992.427476</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1406,11 +1386,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1439,15 +1415,11 @@
         <v>4013.080676</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1476,15 +1448,11 @@
         <v>5148.514376</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1513,15 +1481,11 @@
         <v>4928.366176</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1550,15 +1514,11 @@
         <v>5075.366176</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1587,15 +1547,11 @@
         <v>4990.016676</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1624,17 +1580,11 @@
         <v>4989.016676</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8875</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1663,15 +1613,11 @@
         <v>5001.325276</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1700,15 +1646,11 @@
         <v>4091.466876</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1737,15 +1679,11 @@
         <v>4093.566876</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1774,15 +1712,11 @@
         <v>3966.324876</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1811,15 +1745,11 @@
         <v>4800.1162</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1848,15 +1778,11 @@
         <v>4800.1162</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1889,11 +1815,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1926,11 +1848,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1963,11 +1881,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2000,11 +1914,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2037,11 +1947,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2074,11 +1980,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2111,11 +2013,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2148,11 +2046,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2185,11 +2079,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2222,11 +2112,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2259,11 +2145,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2296,11 +2178,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2333,11 +2211,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2370,11 +2244,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2407,11 +2277,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2310,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2481,11 +2343,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2518,11 +2376,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2555,11 +2409,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2592,11 +2442,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2475,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2666,11 +2508,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2703,11 +2541,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2740,11 +2574,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2777,11 +2607,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +2640,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2851,11 +2673,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2706,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2925,11 +2739,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2962,11 +2772,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +2805,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +2838,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +2871,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3110,11 +2904,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3147,11 +2937,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3184,11 +2970,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3221,11 +3003,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3258,11 +3036,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3295,11 +3069,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3332,11 +3102,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3369,11 +3135,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3168,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3443,11 +3201,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3480,11 +3234,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3517,11 +3267,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3554,11 +3300,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3591,11 +3333,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3628,11 +3366,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3665,11 +3399,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3702,11 +3432,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3739,11 +3465,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3776,11 +3498,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3813,11 +3531,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3564,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3887,11 +3597,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3924,11 +3630,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3961,11 +3663,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3994,15 +3692,11 @@
         <v>4755.88838325</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4031,15 +3725,11 @@
         <v>4655.88838325</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4068,15 +3758,11 @@
         <v>4673.88838325</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4109,11 +3795,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4142,15 +3824,11 @@
         <v>4673.88838325</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4179,15 +3857,11 @@
         <v>4673.88838325</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4216,15 +3890,11 @@
         <v>4673.88838325</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4253,15 +3923,11 @@
         <v>4669.88838325</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4290,15 +3956,11 @@
         <v>4748.87938325</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4327,15 +3989,11 @@
         <v>4736.87938325</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4026,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4405,11 +4059,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4442,11 +4092,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4479,11 +4125,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4158,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4553,11 +4191,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4590,11 +4224,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4627,11 +4257,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4664,11 +4290,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4701,11 +4323,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4738,11 +4356,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4775,11 +4389,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4812,11 +4422,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4849,11 +4455,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4886,11 +4488,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4923,11 +4521,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +4554,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4997,11 +4587,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5034,11 +4620,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +4653,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5108,11 +4686,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5145,11 +4719,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5182,11 +4752,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5219,11 +4785,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5256,11 +4818,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5293,11 +4851,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +4884,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5367,11 +4917,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +4950,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5441,11 +4983,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5478,11 +5016,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5515,11 +5049,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5552,11 +5082,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5589,11 +5115,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5626,11 +5148,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5663,11 +5181,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5700,11 +5214,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5737,11 +5247,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5774,11 +5280,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5811,11 +5313,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5848,11 +5346,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5885,11 +5379,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5922,11 +5412,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5959,11 +5445,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5996,11 +5478,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6033,11 +5511,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6070,11 +5544,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6107,11 +5577,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6144,11 +5610,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +5643,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6218,11 +5676,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6255,11 +5709,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6292,11 +5742,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6329,11 +5775,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6366,11 +5808,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6403,11 +5841,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6440,11 +5874,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6477,11 +5907,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6514,11 +5940,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6551,11 +5973,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6588,11 +6006,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6625,11 +6039,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6658,15 +6068,11 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6695,15 +6101,11 @@
         <v>4661.321421929999</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6736,11 +6138,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6773,11 +6171,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6810,11 +6204,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6847,11 +6237,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +6270,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6921,11 +6303,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6958,11 +6336,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6995,11 +6369,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7032,11 +6402,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +6435,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7106,11 +6468,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7143,11 +6501,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7180,11 +6534,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7217,11 +6567,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +6600,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7291,11 +6633,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7328,11 +6666,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7365,11 +6699,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7402,11 +6732,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7439,11 +6765,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7476,11 +6798,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +6831,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7550,11 +6864,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7587,11 +6897,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7624,11 +6930,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7661,11 +6963,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7698,11 +6996,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7735,11 +7029,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7772,11 +7062,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7809,11 +7095,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7846,11 +7128,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7883,11 +7161,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7920,11 +7194,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7957,11 +7227,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7994,11 +7260,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8031,11 +7293,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8068,11 +7326,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8105,11 +7359,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +7392,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8179,11 +7425,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +7458,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8253,11 +7491,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8290,11 +7524,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +7557,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8364,11 +7590,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8401,11 +7623,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8438,11 +7656,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8475,11 +7689,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8512,11 +7722,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8549,11 +7755,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8586,11 +7788,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8623,11 +7821,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8660,11 +7854,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8697,11 +7887,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8734,11 +7920,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8771,11 +7953,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8808,11 +7986,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8845,11 +8019,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8882,11 +8052,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8085,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8118,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8993,11 +8151,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9030,11 +8184,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9067,11 +8217,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9104,11 +8250,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9141,11 +8283,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9174,16 +8312,14 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
       <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
@@ -9209,7 +8345,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9242,7 +8378,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9275,7 +8411,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9308,7 +8444,7 @@
         <v>8974.096714519999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9341,7 +8477,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9374,7 +8510,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9407,7 +8543,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9440,7 +8576,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9473,7 +8609,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9506,7 +8642,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9539,7 +8675,7 @@
         <v>9167.034514520001</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9572,7 +8708,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9605,7 +8741,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9638,7 +8774,7 @@
         <v>9779.595123179999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9671,7 +8807,7 @@
         <v>10534.07962999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9704,7 +8840,7 @@
         <v>10285.10452999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9737,7 +8873,7 @@
         <v>10116.62192999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9770,7 +8906,7 @@
         <v>9909.754029990001</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9803,7 +8939,7 @@
         <v>10558.97332999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9836,7 +8972,7 @@
         <v>10522.02602999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9869,7 +9005,7 @@
         <v>10524.02602999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9902,7 +9038,7 @@
         <v>10390.72802999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10001,7 +9137,7 @@
         <v>10390.92802999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10067,7 +9203,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10199,7 +9335,7 @@
         <v>10415.55812999</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10232,7 +9368,7 @@
         <v>10365.93312999</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10265,7 +9401,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10298,7 +9434,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10331,7 +9467,7 @@
         <v>9424.487029990001</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10364,7 +9500,7 @@
         <v>9145.498229990002</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10397,7 +9533,7 @@
         <v>8363.509329990002</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10430,7 +9566,7 @@
         <v>8364.599229990003</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10463,7 +9599,7 @@
         <v>8370.599229990003</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10496,7 +9632,7 @@
         <v>8369.611729990003</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10529,7 +9665,7 @@
         <v>8379.665029990003</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10562,7 +9698,7 @@
         <v>8434.807329990002</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10595,7 +9731,7 @@
         <v>8262.245829990003</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10628,7 +9764,7 @@
         <v>8200.245829990003</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -10661,7 +9797,7 @@
         <v>8413.336529990003</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -10694,7 +9830,7 @@
         <v>8411.336529990003</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -10727,7 +9863,7 @@
         <v>8445.336529990003</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -10760,7 +9896,7 @@
         <v>8372.773729990004</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -10793,7 +9929,7 @@
         <v>8471.922329990004</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -10826,7 +9962,7 @@
         <v>8535.216029990004</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10859,7 +9995,7 @@
         <v>8535.216029990004</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10925,7 +10061,7 @@
         <v>8523.154929990005</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10958,7 +10094,7 @@
         <v>8415.024029990005</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -13268,7 +12404,7 @@
         <v>7449.304430570002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13664,7 +12800,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -16744,6 +15880,6 @@
       <c r="M466" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest BTG.xlsx
+++ b/BackTest/2019-10-26 BackTest BTG.xlsx
@@ -484,11 +484,17 @@
         <v>2254.1497</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8675</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -522,10 +528,12 @@
       <c r="I4" t="n">
         <v>8675</v>
       </c>
-      <c r="J4" t="n">
-        <v>8675</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -559,12 +567,10 @@
       <c r="I5" t="n">
         <v>8675</v>
       </c>
-      <c r="J5" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -600,9 +606,7 @@
       <c r="I6" t="n">
         <v>8670</v>
       </c>
-      <c r="J6" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -641,9 +645,7 @@
       <c r="I7" t="n">
         <v>8685</v>
       </c>
-      <c r="J7" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -682,9 +684,7 @@
       <c r="I8" t="n">
         <v>8675</v>
       </c>
-      <c r="J8" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -723,9 +723,7 @@
       <c r="I9" t="n">
         <v>8680</v>
       </c>
-      <c r="J9" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -764,9 +762,7 @@
       <c r="I10" t="n">
         <v>8690</v>
       </c>
-      <c r="J10" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -800,12 +796,12 @@
         <v>3215.4678</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8900</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -842,9 +838,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -878,12 +872,12 @@
         <v>3035.9198</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>8725</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -920,9 +914,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -956,12 +948,12 @@
         <v>3058.4715</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>8830</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,9 +990,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>8675</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1034,12 +1024,12 @@
         <v>3061.4523</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8795</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1073,12 +1063,12 @@
         <v>3023.5417</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8870</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1112,19 +1102,19 @@
         <v>3023.5417</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>8675</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>8780</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.007103746397695</v>
+        <v>1</v>
       </c>
       <c r="M19" t="inlineStr"/>
     </row>
@@ -1151,11 +1141,17 @@
         <v>3029.5417</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>8780</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1184,11 +1180,17 @@
         <v>2976.595</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>8825</v>
+      </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1217,11 +1219,17 @@
         <v>2976.595</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8820</v>
+      </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1250,11 +1258,17 @@
         <v>2873.6944</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>8820</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1283,11 +1297,17 @@
         <v>3993.427476</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8805</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1336,15 @@
         <v>3992.427476</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1349,11 +1373,15 @@
         <v>3992.427476</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,7 +1414,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1447,15 @@
         <v>4013.080676</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1448,11 +1484,15 @@
         <v>5148.514376</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1481,11 +1521,15 @@
         <v>4928.366176</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1514,11 +1558,15 @@
         <v>5075.366176</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1547,11 +1595,15 @@
         <v>4990.016676</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1580,11 +1632,15 @@
         <v>4989.016676</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1613,11 +1669,15 @@
         <v>5001.325276</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1646,11 +1706,15 @@
         <v>4091.466876</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1679,11 +1743,15 @@
         <v>4093.566876</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1712,11 +1780,15 @@
         <v>3966.324876</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1745,11 +1817,15 @@
         <v>4800.1162</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1778,11 +1854,15 @@
         <v>4800.1162</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1815,7 +1895,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1848,7 +1932,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1881,7 +1969,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1914,7 +2006,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1947,7 +2043,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1980,7 +2080,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2013,7 +2117,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2046,7 +2154,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2079,7 +2191,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2112,7 +2228,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2145,7 +2265,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2178,7 +2302,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2211,7 +2339,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2244,7 +2376,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2277,7 +2413,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2310,7 +2450,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2343,7 +2487,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2376,7 +2524,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2409,7 +2561,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,7 +2598,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2475,7 +2635,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2508,7 +2672,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2541,7 +2709,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2574,7 +2746,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2607,7 +2783,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2640,7 +2820,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2673,7 +2857,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2706,7 +2894,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2739,7 +2931,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2772,7 +2968,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2805,7 +3005,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2838,7 +3042,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2871,7 +3079,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2904,7 +3116,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2937,7 +3153,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2970,7 +3190,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3003,7 +3227,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3036,7 +3264,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3069,7 +3301,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3102,7 +3338,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3135,7 +3375,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3168,7 +3412,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3201,7 +3449,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3234,7 +3486,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3267,7 +3523,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3300,7 +3560,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3333,7 +3597,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3366,7 +3634,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3399,7 +3671,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3432,7 +3708,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3465,7 +3745,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3498,7 +3782,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3531,7 +3819,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3564,7 +3856,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3597,7 +3893,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3630,7 +3930,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3663,7 +3967,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3692,11 +4000,15 @@
         <v>4755.88838325</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +4037,15 @@
         <v>4655.88838325</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3758,11 +4074,15 @@
         <v>4673.88838325</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3795,7 +4115,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3824,11 +4148,15 @@
         <v>4673.88838325</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3857,11 +4185,15 @@
         <v>4673.88838325</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3890,11 +4222,15 @@
         <v>4673.88838325</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3923,11 +4259,15 @@
         <v>4669.88838325</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3956,11 +4296,15 @@
         <v>4748.87938325</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3989,11 +4333,15 @@
         <v>4736.87938325</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4026,7 +4374,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4059,7 +4411,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4092,7 +4448,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4125,7 +4485,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4158,7 +4522,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4191,7 +4559,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4224,7 +4596,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4257,7 +4633,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4290,7 +4670,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4323,7 +4707,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4356,7 +4744,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4389,7 +4781,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4422,7 +4818,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4455,7 +4855,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4488,7 +4892,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4521,7 +4929,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4554,7 +4966,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4587,7 +5003,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4620,7 +5040,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4653,7 +5077,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4686,7 +5114,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4719,7 +5151,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4752,7 +5188,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4785,7 +5225,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4818,7 +5262,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4851,7 +5299,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4884,7 +5336,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4917,7 +5373,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4950,7 +5410,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4983,7 +5447,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5016,7 +5484,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5049,7 +5521,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5082,7 +5558,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5115,7 +5595,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5632,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5181,7 +5669,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5214,7 +5706,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5247,7 +5743,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5280,7 +5780,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5313,7 +5817,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5346,7 +5854,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5379,7 +5891,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5412,7 +5928,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5445,7 +5965,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5478,7 +6002,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5511,7 +6039,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5544,7 +6076,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5577,7 +6113,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5610,7 +6150,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5643,7 +6187,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5676,7 +6224,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5709,7 +6261,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5742,7 +6298,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5775,7 +6335,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5808,7 +6372,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5841,7 +6409,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5874,7 +6446,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5907,7 +6483,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5940,7 +6520,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5973,7 +6557,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6006,7 +6594,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6039,7 +6631,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +6664,15 @@
         <v>4698.302821929999</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6101,11 +6701,15 @@
         <v>4661.321421929999</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6138,7 +6742,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6171,7 +6779,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6204,7 +6816,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6237,7 +6853,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6270,7 +6890,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6927,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6336,7 +6964,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6369,7 +7001,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6402,7 +7038,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6435,7 +7075,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6468,7 +7112,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6501,7 +7149,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6534,7 +7186,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6567,7 +7223,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6600,7 +7260,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6633,7 +7297,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6666,7 +7334,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6699,7 +7371,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6732,7 +7408,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6765,7 +7445,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6798,7 +7482,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6831,7 +7519,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6864,7 +7556,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6897,7 +7593,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6930,7 +7630,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6963,7 +7667,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6996,7 +7704,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7029,7 +7741,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7062,7 +7778,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7095,7 +7815,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7128,7 +7852,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7161,7 +7889,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7194,7 +7926,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7227,7 +7963,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7260,7 +8000,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7293,7 +8037,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7326,7 +8074,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7359,7 +8111,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7392,7 +8148,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7425,7 +8185,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +8222,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7491,7 +8259,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7524,7 +8296,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7557,7 +8333,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +8370,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7623,7 +8407,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7656,7 +8444,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7689,7 +8481,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7722,7 +8518,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7755,7 +8555,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7788,7 +8592,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7821,7 +8629,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +8666,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7887,7 +8703,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7916,14 +8736,16 @@
         <v>9535.80421452</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
@@ -7949,7 +8771,7 @@
         <v>9679.827414519999</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7982,7 +8804,7 @@
         <v>9466.786314519999</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8015,7 +8837,7 @@
         <v>9466.886314519999</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8048,7 +8870,7 @@
         <v>9478.886314519999</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8081,7 +8903,7 @@
         <v>9452.886314519999</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8114,7 +8936,7 @@
         <v>8984.697314519999</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8147,7 +8969,7 @@
         <v>8990.697314519999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8180,7 +9002,7 @@
         <v>9191.697314519999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8213,7 +9035,7 @@
         <v>8752.141214519999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8246,7 +9068,7 @@
         <v>8752.141214519999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8279,7 +9101,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8312,7 +9134,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8345,7 +9167,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8378,7 +9200,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8411,7 +9233,7 @@
         <v>8966.096714519999</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8444,7 +9266,7 @@
         <v>8974.096714519999</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8477,7 +9299,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8510,7 +9332,7 @@
         <v>8553.287814519999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8543,7 +9365,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8576,7 +9398,7 @@
         <v>8707.89341452</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8609,7 +9431,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8642,7 +9464,7 @@
         <v>9129.89341452</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8675,7 +9497,7 @@
         <v>9167.034514520001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8708,7 +9530,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8741,7 +9563,7 @@
         <v>9199.76611452</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8774,7 +9596,7 @@
         <v>9779.595123179999</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8807,7 +9629,7 @@
         <v>10534.07962999</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8840,7 +9662,7 @@
         <v>10285.10452999</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8873,7 +9695,7 @@
         <v>10116.62192999</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8906,7 +9728,7 @@
         <v>9909.754029990001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8939,7 +9761,7 @@
         <v>10558.97332999</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8972,7 +9794,7 @@
         <v>10522.02602999</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9005,7 +9827,7 @@
         <v>10524.02602999</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9038,7 +9860,7 @@
         <v>10390.72802999</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9071,7 +9893,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9104,7 +9926,7 @@
         <v>10390.82802999</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9137,7 +9959,7 @@
         <v>10390.92802999</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9170,7 +9992,7 @@
         <v>10386.12802999</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9203,7 +10025,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9236,7 +10058,7 @@
         <v>10374.95282999</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9269,7 +10091,7 @@
         <v>10375.05282999</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9302,7 +10124,7 @@
         <v>10542.84272999</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9335,7 +10157,7 @@
         <v>10415.55812999</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9368,7 +10190,7 @@
         <v>10365.93312999</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9401,7 +10223,7 @@
         <v>9275.955129990001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9500,7 +10322,7 @@
         <v>9145.498229990002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -12404,7 +13226,7 @@
         <v>7449.304430570002</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12800,7 +13622,7 @@
         <v>6771.895430570002</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
